--- a/biology/Zoologie/1_001_Pattes/1_001_Pattes.xlsx
+++ b/biology/Zoologie/1_001_Pattes/1_001_Pattes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1 001 Pattes ou Une vie de bestiole au Québec (A Bug's Life) est un film américain co-realisé par John Lasseter et Andrew Stanton, sorti en 1998. Il s'agit du deuxième long-métrages d'animation en images de synthèse des studios Pixar.
@@ -512,11 +524,48 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le maladroit Tilt (Flick, au Québec) a détruit la récolte de la saison de sa fourmilière. Pareille bévue n'est pas faite pour plaire au cruel Le Borgne (Hopper, au Québec), venu racketter les fourmis avec sa bande de sauterelles. Contraint de s'en retourner bredouille, l'affreux insecte promet de revenir à l'automne collecter le double de sa ration habituelle. Pour se faire pardonner, Tilt propose de partir à la recherche de mercenaires pour lutter contre l'envahisseur…
-Résumé détaillé
-Une colonie de fourmis, dirigée par la vieille reine et sa fille, la princesse Atta, vit au milieu d'un ruisseau saisonnier sec sur une petite colline connue sous le nom de "L’île aux fourmis". Chaque été, ils sont obligés de donner de la nourriture à un gang de sauterelles dominateurs, dirigés par le Borgne. Un jour, une fourmi inventeur sujette aux accidents nommée Tilt fait accidentellement tomber l'offrande dans l'eau avec sa dernière invention, un récolteur de céréales. En le décevant, Le Borgne exige deux fois plus de nourriture comme compensation. Lorsque Tilt suggère sérieusement aux fourmis d'obtenir l'aide de plus gros insectes pour combattre les sauterelles, Atta le voit comme un moyen de se débarrasser de Tilt et l'envoie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1_001_Pattes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1_001_Pattes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Résumé détaillé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une colonie de fourmis, dirigée par la vieille reine et sa fille, la princesse Atta, vit au milieu d'un ruisseau saisonnier sec sur une petite colline connue sous le nom de "L’île aux fourmis". Chaque été, ils sont obligés de donner de la nourriture à un gang de sauterelles dominateurs, dirigés par le Borgne. Un jour, une fourmi inventeur sujette aux accidents nommée Tilt fait accidentellement tomber l'offrande dans l'eau avec sa dernière invention, un récolteur de céréales. En le décevant, Le Borgne exige deux fois plus de nourriture comme compensation. Lorsque Tilt suggère sérieusement aux fourmis d'obtenir l'aide de plus gros insectes pour combattre les sauterelles, Atta le voit comme un moyen de se débarrasser de Tilt et l'envoie.
 Tilt se rend dans "la ville", un tas de déchets sous une remorque. À la suite d'un combat de bar chaotique, Tilt confond une troupe d'insectes de cirque sans emploi pour des insectes guerriers qu'il recherche. Les insectes, à leur tour, confondent Tilt pour un agent de talents et acceptent de retourner avec lui sur son île. Lors d'une cérémonie de bienvenue à leur arrivée, la troupe de cirque et Tilt découvrent leurs malentendus mutuels. La troupe de cirque tentent de partir, mais sont poursuivis par un oiseau voisin ; en fuyant, ils sauvent la sœur cadette d'Atta, Couette, de l'oiseau, gagnant le respect des fourmis. À la demande de Tilt, la troupe de cirque continuent la ruse d'être des "guerriers", leur permettant ainsi de continuer à profiter de l'hospitalité des fourmis. Apprendre que le Borgne craint les oiseaux inspire Tilt à créer un faux oiseau pour effrayer les sauterelles. Pendant ce temps, le Borgne rappelle à sa bande le nombre supérieur des fourmis, et soupçonne que les fourmis finiront par se rebeller s'ils ne sont pas maintenus en ligne car ils sont plus nombreux qu’eux.
 Les fourmis finissent de construire le faux oiseau. Lors de la célébration suivante, l'ancien patron de la troupe de cirque, Lilipuce, arrive, voulant les réembaucher. Cela révèle par inadvertance les mensonges de Tilt ; indignées, les fourmis l'exilent, lui et la troupe de cirque, et tentent désespérément de rassembler de la nourriture pour une nouvelle offrande. le Borgne revient et voit l'offrande médiocre ; il s'empare de l'île et exige le propre approvisionnement alimentaire hivernal des fourmis, prévoyant d'exécuter la Reine par la suite. En entendant le plan, Couette persuade Tilt et la troupe de cirque de retourner sur l'île aux fourmis pour les sauver.
 Après que les insectes du cirque aient distrait les sauterelles assez longtemps pour sauver la reine, Tilt déploie l'oiseau. Au début, il trompe les sauterelles, mais Lilipuce, qui est également trompé, met le feu à l'oiseau. Réalisant la supercherie, le Borgne riposte en faisant battre Tilt, proclamant que les fourmis sont des formes de vie humbles qui vivent pour servir les sauterelles mais Tilt affirme que le Borgne craint en fait la colonie, parce qu'il a toujours su de quoi ils sont capables. Cela inspire les fourmis et la troupe de cirque à se battre contre les sauterelles, les chassant toutes sauf le Borgne.
@@ -526,31 +575,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1_001_Pattes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/1_001_Pattes</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1_001_Pattes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1_001_Pattes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre original : A Bug's Life
 Titre français : 1 001 Pattes
@@ -566,41 +617,46 @@
 Budget : 45 millions USD
 Format : Couleurs - 2.35 : 1 (Cinémascope) - Dolby Digital - SDDS - DTS
 Durée : 95 minutes
-Dates de sortie[1]
+Dates de sortie
 États-Unis : 25 novembre 1998
 France : 10 février 1999
 Suisse romande : 12 février 1999</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1_001_Pattes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/1_001_Pattes</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1_001_Pattes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1_001_Pattes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Voix originales
-Dave Foley : Flik (Tilt)
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dave Foley : Flik (Tilt)
 Kevin Spacey : Hopper (Le Borgne)
 Julia Louis-Dreyfus : la princesse Atta
 Hayden Panettiere : Dot (Couette)
@@ -618,9 +674,43 @@
 Brad Garrett : Dim (Cake)
 Edie McClurg : Dr Flora
 Alex Rocco : Thorny (monsieur Somme ou Bourru au Québec)
-David Ossman : Cornelius
-Voix françaises
-Thierry Wermuth : Tilt
+David Ossman : Cornelius</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1_001_Pattes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1_001_Pattes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Thierry Wermuth : Tilt
 Marie Vincent : la princesse Atta
 Dominique Collignon-Maurin : Le Borgne
 Marie Sambourg : la princesse Couette
@@ -648,10 +738,44 @@
 François Chaix : le vendeur de pop-corn
 Michel Mella : le moustique buvant une sangria et la sauterelle à la recherche des fourmis
 Emmanuel Curtil : la sauterelle qui trouve la veste de coccinelle
-Source et légende : version française (VF) sur Voxofilm[2]
-Musique: Le Temps Votre Vie Jean Piat
-Voix québécoises
-Gilbert Lachance : Klic (Flik), Heimlich
+Source et légende : version française (VF) sur Voxofilm
+Musique: Le Temps Votre Vie Jean Piat</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1_001_Pattes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1_001_Pattes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Voix québécoises</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Gilbert Lachance : Klic (Flik), Heimlich
 Guy Nadon : Hopper
 Christine Bellier : la princesse Atta
 Claudia-Laurie Corbeil : la princesse Dot
@@ -676,87 +800,93 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1_001_Pattes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/1_001_Pattes</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1_001_Pattes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1_001_Pattes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Chansons du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>The Time Of Your Life ou La Chance de ta vie au Québec (Générique de fin) - Randy Newman ou Michel Comeau (Québec)</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1_001_Pattes</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/1_001_Pattes</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1_001_Pattes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1_001_Pattes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1_001_Pattes</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/1_001_Pattes</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1_001_Pattes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1_001_Pattes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Tuck et Roll les deux cloportes sont à plusieurs reprises nommés « les poux », ce qui est sûrement dû à une faute de traduction. En effet, l'un des termes anglais pour cloporte est woodlouse ; un surnom plus juste aurait été « les cochons » en référence au nom de cochon de cave (ou de saint Antoine).
 La chanson finale The Time Of Your Life est interprétée par Randy Newman, également interprète du générique It's a Jungle out There de la série télévisée Monk.
@@ -767,31 +897,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1_001_Pattes</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/1_001_Pattes</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1_001_Pattes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1_001_Pattes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Sorties vidéo</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>20 avril 1999 - VHS (Québec et États-Unis) avec recadrage 4/3 (1,33) et doublage québécois d'origine
 10 novembre 1999 - VHS et DVD (France)
